--- a/db/table.xlsx
+++ b/db/table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="154">
   <si>
     <t>ID</t>
   </si>
@@ -486,12 +486,159 @@
 12、成品的基准价是根据食材的配比计算而来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食材分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食材名称</t>
+  </si>
+  <si>
+    <t>规格参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食材配比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品配比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验货入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配货需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货配货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食材库查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品库查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货完成基准价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品消耗基准价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报损审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目栏目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,8 +676,27 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,8 +709,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -578,18 +750,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -623,6 +892,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -918,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:Q108"/>
+  <dimension ref="B3:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83:F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -934,1469 +1245,1501 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" ht="196.5" customHeight="1">
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="20.25" customHeight="1">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="2:17" ht="16.5">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
     </row>
     <row r="10" spans="2:17" ht="16.5">
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
+      <c r="F10" s="4"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
     </row>
     <row r="11" spans="2:17" ht="16.5">
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
+      <c r="F11" s="4"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="2:17" ht="16.5">
-      <c r="B12" s="4">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="2:17" ht="16.5">
+      <c r="B13" s="3">
         <v>3</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-    </row>
-    <row r="13" spans="2:17" ht="16.5">
-      <c r="B13" s="4">
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="2:17" ht="16.5">
+      <c r="B14" s="3">
         <v>4</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-    </row>
-    <row r="14" spans="2:17" ht="16.5">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-    </row>
-    <row r="15" spans="2:17">
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="2:17" ht="16.5">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="2:17">
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="2:17">
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="2:17">
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-    </row>
-    <row r="19" spans="2:17" ht="20.25">
-      <c r="B19" s="1" t="s">
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="2:17" ht="20.25">
+      <c r="B20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-    </row>
-    <row r="20" spans="2:17" ht="16.5">
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="2:17" ht="16.5">
+      <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-    </row>
-    <row r="21" spans="2:17" ht="16.5">
-      <c r="B21" s="4">
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="2:17" ht="16.5">
+      <c r="B22" s="3">
         <v>1</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-    </row>
-    <row r="22" spans="2:17" ht="16.5">
-      <c r="B22" s="4">
+      <c r="F22" s="4"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="2:17" ht="16.5">
+      <c r="B23" s="3">
         <v>2</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-    </row>
-    <row r="23" spans="2:17" ht="16.5">
-      <c r="B23" s="4">
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="2:17" ht="16.5">
+      <c r="B24" s="3">
         <v>3</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-    </row>
-    <row r="24" spans="2:17" ht="16.5">
-      <c r="B24" s="4">
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="2:17" ht="16.5">
+      <c r="B25" s="3">
         <v>4</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-    </row>
-    <row r="25" spans="2:17" ht="16.5">
-      <c r="B25" s="4">
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="2:17" ht="16.5">
+      <c r="B26" s="3">
         <v>5</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-    </row>
-    <row r="26" spans="2:17" ht="16.5">
-      <c r="B26" s="4">
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="2:17" ht="16.5">
+      <c r="B27" s="3">
         <v>6</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-    </row>
-    <row r="27" spans="2:17" ht="16.5">
-      <c r="B27" s="4">
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="2:17" ht="16.5">
+      <c r="B28" s="3">
         <v>7</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="16.5">
-      <c r="B28" s="4">
+    <row r="29" spans="2:17" ht="16.5">
+      <c r="B29" s="3">
         <v>8</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F29" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:17" ht="16.5">
-      <c r="B29" s="4">
+    <row r="30" spans="2:17" ht="16.5">
+      <c r="B30" s="3">
         <v>9</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:17" ht="16.5">
-      <c r="B30" s="4"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="9"/>
-    </row>
     <row r="31" spans="2:17" ht="16.5">
-      <c r="B31" s="4">
+      <c r="B31" s="3"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="2:17" ht="16.5">
+      <c r="B32" s="3">
         <v>11</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F32" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="16.5">
-      <c r="B32" s="4">
+    <row r="33" spans="2:6" ht="16.5">
+      <c r="B33" s="3">
         <v>12</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D33" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="16.5">
-      <c r="B33" s="4">
+    <row r="34" spans="2:6" ht="16.5">
+      <c r="B34" s="3">
         <v>13</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F34" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="16.5">
-      <c r="B34" s="4">
+    <row r="35" spans="2:6" ht="16.5">
+      <c r="B35" s="3">
         <v>14</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D35" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="9" t="s">
+      <c r="E35" s="4"/>
+      <c r="F35" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="16.5">
-      <c r="B35" s="4">
+    <row r="36" spans="2:6" ht="16.5">
+      <c r="B36" s="3">
         <v>14</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="16.5">
-      <c r="B36" s="4">
+    <row r="37" spans="2:6" ht="16.5">
+      <c r="B37" s="3">
         <v>10</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="16.5">
-      <c r="B37" s="4">
+    <row r="38" spans="2:6" ht="16.5">
+      <c r="B38" s="3">
         <v>15</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D38" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F38" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="16.5">
-      <c r="B38" s="4">
+    <row r="39" spans="2:6" ht="16.5">
+      <c r="B39" s="3">
         <v>16</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D39" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F39" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="16.5">
-      <c r="B39" s="4">
+    <row r="40" spans="2:6" ht="16.5">
+      <c r="B40" s="3">
         <v>17</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="20.25">
-      <c r="B44" s="1" t="s">
+    <row r="45" spans="2:6" ht="20.25">
+      <c r="B45" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="2:6" ht="16.5">
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+    </row>
+    <row r="46" spans="2:6" ht="16.5">
+      <c r="B46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F46" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="16.5">
-      <c r="B46" s="4">
+    <row r="47" spans="2:6" ht="16.5">
+      <c r="B47" s="3">
         <v>1</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E47" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="2:6" ht="16.5">
-      <c r="B47" s="4">
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="2:6" ht="16.5">
+      <c r="B48" s="3">
         <v>2</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E48" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F48" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="16.5">
-      <c r="B48" s="4">
+    <row r="49" spans="2:6" ht="16.5">
+      <c r="B49" s="3">
         <v>3</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F49" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="16.5">
-      <c r="B49" s="4">
+    <row r="50" spans="2:6" ht="16.5">
+      <c r="B50" s="3">
         <v>6</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C50" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D50" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E50" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F50" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="16.5">
-      <c r="B50" s="4">
+    <row r="51" spans="2:6" ht="16.5">
+      <c r="B51" s="3">
         <v>7</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C51" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E51" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F51" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="16.5">
-      <c r="B51" s="4">
+    <row r="52" spans="2:6" ht="16.5">
+      <c r="B52" s="3">
         <v>8</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E52" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F52" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="20.25">
-      <c r="B54" s="1" t="s">
+    <row r="55" spans="2:6" ht="20.25">
+      <c r="B55" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="2:6" ht="16.5">
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" spans="2:6" ht="16.5">
+      <c r="B56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E56" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F56" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="16.5">
-      <c r="B56" s="4">
+    <row r="57" spans="2:6" ht="16.5">
+      <c r="B57" s="3">
         <v>1</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E57" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="2:6" ht="16.5">
-      <c r="B57" s="4">
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="2:6" ht="16.5">
+      <c r="B58" s="3">
         <v>2</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E58" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F58" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="16.5">
-      <c r="B58" s="4">
+    <row r="59" spans="2:6" ht="16.5">
+      <c r="B59" s="3">
         <v>3</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D59" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E59" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F59" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="16.5">
-      <c r="B59" s="4">
+    <row r="60" spans="2:6" ht="16.5">
+      <c r="B60" s="3">
         <v>6</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C60" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D60" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E60" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F60" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="2:6" ht="20.25">
-      <c r="B63" s="1" t="s">
+    <row r="64" spans="2:6" ht="20.25">
+      <c r="B64" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="2:6" ht="16.5">
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+    </row>
+    <row r="65" spans="2:6" ht="16.5">
+      <c r="B65" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E65" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F65" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="16.5">
-      <c r="B65" s="4">
+    <row r="66" spans="2:6" ht="16.5">
+      <c r="B66" s="3">
         <v>1</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E66" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="2:6" ht="16.5">
-      <c r="B66" s="4">
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="2:6" ht="16.5">
+      <c r="B67" s="3">
         <v>2</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5" t="s">
+      <c r="E67" s="4"/>
+      <c r="F67" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="16.5">
-      <c r="B67" s="4">
+    <row r="68" spans="2:6" ht="16.5">
+      <c r="B68" s="3">
         <v>3</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D68" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5" t="s">
+      <c r="E68" s="4"/>
+      <c r="F68" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="16.5">
-      <c r="B68" s="4">
+    <row r="69" spans="2:6" ht="16.5">
+      <c r="B69" s="3">
         <v>4</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D69" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5" t="s">
+      <c r="E69" s="4"/>
+      <c r="F69" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="16.5">
-      <c r="B69" s="4">
+    <row r="70" spans="2:6" ht="16.5">
+      <c r="B70" s="3">
         <v>5</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C70" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D70" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E69" s="5"/>
-      <c r="F69" s="9" t="s">
+      <c r="E70" s="4"/>
+      <c r="F70" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="16.5">
-      <c r="B70" s="4">
+    <row r="71" spans="2:6" ht="16.5">
+      <c r="B71" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="16.5">
-      <c r="B71" s="4">
+    <row r="72" spans="2:6" ht="16.5">
+      <c r="B72" s="3">
         <v>7</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C72" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D72" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E71" s="5"/>
-      <c r="F71" s="9" t="s">
+      <c r="E72" s="4"/>
+      <c r="F72" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="16.5">
-      <c r="B72" s="4">
+    <row r="73" spans="2:6" ht="16.5">
+      <c r="B73" s="3">
         <v>8</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C73" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D73" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="10" t="s">
+      <c r="E73" s="4"/>
+      <c r="F73" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="16.5">
-      <c r="B73" s="4">
+    <row r="74" spans="2:6" ht="16.5">
+      <c r="B74" s="3">
         <v>9</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C74" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D74" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="9" t="s">
+      <c r="E74" s="4"/>
+      <c r="F74" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="16.5">
-      <c r="B74" s="4">
+    <row r="75" spans="2:6" ht="16.5">
+      <c r="B75" s="3">
         <v>10</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C75" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D75" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E74" s="5"/>
-      <c r="F74" s="9" t="s">
+      <c r="E75" s="4"/>
+      <c r="F75" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="16.5">
-      <c r="B75" s="4">
+    <row r="76" spans="2:6" ht="16.5">
+      <c r="B76" s="3">
         <v>11</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C76" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D76" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E75" s="5"/>
-      <c r="F75" s="9" t="s">
+      <c r="E76" s="4"/>
+      <c r="F76" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="16.5">
-      <c r="B76" s="4">
+    <row r="77" spans="2:6" ht="16.5">
+      <c r="B77" s="3">
         <v>12</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C77" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D77" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="9" t="s">
+      <c r="E77" s="4"/>
+      <c r="F77" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="16.5">
-      <c r="B77" s="4"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="9"/>
-    </row>
     <row r="78" spans="2:6" ht="16.5">
-      <c r="B78" s="4">
+      <c r="B78" s="3"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="8"/>
+    </row>
+    <row r="79" spans="2:6" ht="16.5">
+      <c r="B79" s="3">
         <v>13</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C79" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D79" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="9" t="s">
+      <c r="E79" s="4"/>
+      <c r="F79" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="16.5">
-      <c r="B79" s="4">
+    <row r="80" spans="2:6" ht="16.5">
+      <c r="B80" s="3">
         <v>14</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C80" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D80" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="5"/>
-      <c r="F79" s="9" t="s">
+      <c r="E80" s="4"/>
+      <c r="F80" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="16.5">
-      <c r="B80" s="4">
+    <row r="81" spans="2:6" ht="16.5">
+      <c r="B81" s="3">
         <v>15</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C81" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D81" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E80" s="5"/>
-      <c r="F80" s="9" t="s">
+      <c r="E81" s="4"/>
+      <c r="F81" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="16.5">
-      <c r="B81" s="4">
+    <row r="82" spans="2:6" ht="16.5">
+      <c r="B82" s="3">
         <v>16</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C82" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D82" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E81" s="5"/>
-      <c r="F81" s="9" t="s">
+      <c r="E82" s="4"/>
+      <c r="F82" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="2:6" ht="16.5">
-      <c r="B82" s="4">
+    <row r="83" spans="2:6" ht="16.5">
+      <c r="B83" s="3">
         <v>17</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C83" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D83" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E83" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F83" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="2:6" ht="20.25">
-      <c r="B85" s="1" t="s">
+    <row r="86" spans="2:6" ht="20.25">
+      <c r="B86" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="2:6" ht="16.5">
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+    </row>
+    <row r="87" spans="2:6" ht="16.5">
+      <c r="B87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D87" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E87" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F87" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="2:6" ht="16.5">
-      <c r="B87" s="4">
+    <row r="88" spans="2:6" ht="16.5">
+      <c r="B88" s="3">
         <v>1</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C88" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D88" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E88" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F87" s="5"/>
-    </row>
-    <row r="88" spans="2:6" ht="16.5">
-      <c r="B88" s="4">
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="2:6" ht="16.5">
+      <c r="B89" s="3">
         <v>2</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C89" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D89" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E89" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F89" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="89" spans="2:6" ht="16.5">
-      <c r="B89" s="4">
+    <row r="90" spans="2:6" ht="16.5">
+      <c r="B90" s="3">
         <v>3</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C90" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D90" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E90" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F90" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="2:6" ht="16.5">
-      <c r="B90" s="4">
+    <row r="91" spans="2:6" ht="16.5">
+      <c r="B91" s="3">
         <v>6</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C91" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D91" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E91" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F90" s="9" t="s">
+      <c r="F91" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="91" spans="2:6" ht="16.5">
-      <c r="B91" s="4">
+    <row r="92" spans="2:6" ht="16.5">
+      <c r="B92" s="3">
         <v>7</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C92" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D92" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E92" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F91" s="9" t="s">
+      <c r="F92" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="2:6" ht="16.5">
-      <c r="B92" s="4">
+    <row r="93" spans="2:6" ht="16.5">
+      <c r="B93" s="3">
         <v>8</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C93" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D93" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E93" s="4">
         <v>0</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F93" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="2:6" ht="16.5">
-      <c r="B93" s="4">
+    <row r="94" spans="2:6" ht="16.5">
+      <c r="B94" s="3">
         <v>9</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C94" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E93" s="5">
-        <v>0</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" ht="16.5">
-      <c r="B94" s="4">
-        <v>10</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E94" s="5">
+      <c r="E94" s="4">
         <v>0</v>
       </c>
       <c r="F94" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" ht="16.5">
+      <c r="B95" s="3">
+        <v>10</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" s="4">
+        <v>0</v>
+      </c>
+      <c r="F95" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="2:6" ht="16.5">
-      <c r="B95" s="4">
+    <row r="96" spans="2:6" ht="16.5">
+      <c r="B96" s="3">
         <v>11</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C96" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D96" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E96" s="4">
         <v>0</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F96" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="2:6" ht="16.5">
-      <c r="B96" s="4">
+    <row r="97" spans="2:6" ht="16.5">
+      <c r="B97" s="3">
         <v>12</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C97" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D97" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F97" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="2:6" ht="20.25">
-      <c r="B99" s="1" t="s">
+    <row r="100" spans="2:6" ht="20.25">
+      <c r="B100" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="2:6" ht="16.5">
-      <c r="B100" s="2" t="s">
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+    </row>
+    <row r="101" spans="2:6" ht="16.5">
+      <c r="B101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C101" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D101" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E101" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F101" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="16.5">
-      <c r="B101" s="4">
+    <row r="102" spans="2:6" ht="16.5">
+      <c r="B102" s="3">
         <v>1</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C102" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D102" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E102" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F101" s="5"/>
-    </row>
-    <row r="102" spans="2:6" ht="16.5">
-      <c r="B102" s="4">
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" spans="2:6" ht="16.5">
+      <c r="B103" s="3">
         <v>2</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C103" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D103" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="E103" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="F103" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="16.5">
-      <c r="B103" s="4">
+    <row r="104" spans="2:6" ht="16.5">
+      <c r="B104" s="3">
         <v>3</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C104" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D104" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E104" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="F104" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="16.5">
-      <c r="B104" s="4">
+    <row r="105" spans="2:6" ht="16.5">
+      <c r="B105" s="3">
         <v>6</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C105" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="D105" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E105" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="9" t="s">
+      <c r="F105" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="105" spans="2:6" ht="16.5">
-      <c r="B105" s="4">
+    <row r="106" spans="2:6" ht="16.5">
+      <c r="B106" s="3">
         <v>8</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C106" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D106" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E105" s="5">
+      <c r="E106" s="4">
         <v>0</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="F106" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="2:6" ht="16.5">
-      <c r="B106" s="4">
+    <row r="107" spans="2:6" ht="16.5">
+      <c r="B107" s="3">
         <v>9</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C107" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D107" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="5">
+      <c r="E107" s="4">
         <v>0</v>
       </c>
-      <c r="F106" s="9" t="s">
+      <c r="F107" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="2:6" ht="16.5">
-      <c r="B107" s="4">
+    <row r="108" spans="2:6" ht="16.5">
+      <c r="B108" s="3">
         <v>10</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C108" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D108" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E108" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F108" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="108" spans="2:6" ht="16.5">
-      <c r="B108" s="4">
+    <row r="109" spans="2:6" ht="16.5">
+      <c r="B109" s="3">
         <v>11</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C109" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D109" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E108" s="5">
+      <c r="E109" s="4">
         <v>0</v>
       </c>
-      <c r="F108" s="8" t="s">
+      <c r="F109" s="7" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" ht="16.5">
+      <c r="B110" s="3">
+        <v>12</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B100:F100"/>
     <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B55:F55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2406,12 +2749,360 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.25">
+      <c r="A1" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
+      <c r="A2" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" ht="21" customHeight="1">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" ht="21" customHeight="1">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5">
+      <c r="A12" s="24"/>
+      <c r="B12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5">
+      <c r="A13" s="24"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A14" s="24"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" ht="33" customHeight="1">
+      <c r="A15" s="24"/>
+      <c r="B15" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" ht="33" customHeight="1">
+      <c r="A16" s="24"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A17" s="24"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5">
+      <c r="A18" s="24"/>
+      <c r="B18" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5">
+      <c r="A19" s="24"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5">
+      <c r="A20" s="24"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5">
+      <c r="A21" s="24"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="1:6" ht="24" customHeight="1">
+      <c r="A22" s="24"/>
+      <c r="B22" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A23" s="24"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5">
+      <c r="A24" s="24"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5">
+      <c r="A25" s="24"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A26" s="24"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:6" ht="21" customHeight="1">
+      <c r="A27" s="24"/>
+      <c r="B27" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A28" s="24"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A29" s="24"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5">
+      <c r="A30" s="24"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.5">
+      <c r="A31" s="24"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5">
+      <c r="A32" s="24"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="1:6" ht="16.5">
+      <c r="A33" s="25"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A2:A33"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B2:B11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/db/table.xlsx
+++ b/db/table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="157">
   <si>
     <t>ID</t>
   </si>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Table 1: wx_ref_code   基础表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类型（食材分类、食材名称。。。）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,14 +253,6 @@
   </si>
   <si>
     <t>product_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成品分类id，对应基础表的食材分类id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成品名称id，对应基础表的食材名称id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -631,6 +619,30 @@
   </si>
   <si>
     <t>syb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table 1: wx_refcode   基础表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品分类id，对应基础表的成品分类id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品名称id，对应基础表的成品名称id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位值，对应基础表的成品单位类型值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加采购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗添加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,7 +728,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -850,13 +862,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -893,8 +914,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -905,35 +950,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1231,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:Q110"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83:F83"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1246,17 +1270,17 @@
   <sheetData>
     <row r="3" spans="2:17" ht="196.5" customHeight="1">
       <c r="H3" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="20.25" customHeight="1">
-      <c r="B8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="B8" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="2:17" ht="16.5">
       <c r="B9" s="1" t="s">
@@ -1316,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>9</v>
@@ -1335,7 +1359,7 @@
     <row r="12" spans="2:17" ht="16.5">
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1364,7 +1388,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1462,13 +1486,13 @@
       <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="2:17" ht="20.25">
-      <c r="B20" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="B20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -1534,7 +1558,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>10</v>
@@ -1543,7 +1567,7 @@
         <v>9</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
@@ -1560,7 +1584,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>10</v>
@@ -1569,7 +1593,7 @@
         <v>9</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
@@ -1586,7 +1610,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>10</v>
@@ -1595,7 +1619,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
@@ -1612,16 +1636,16 @@
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
@@ -1638,16 +1662,16 @@
         <v>6</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
@@ -1664,16 +1688,16 @@
         <v>7</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="2:17" ht="16.5">
@@ -1681,16 +1705,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="2:17" ht="16.5">
@@ -1698,16 +1722,16 @@
         <v>9</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="2:17" ht="16.5">
@@ -1722,16 +1746,16 @@
         <v>11</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="16.5">
@@ -1739,16 +1763,16 @@
         <v>12</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="16.5">
@@ -1756,16 +1780,16 @@
         <v>13</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="16.5">
@@ -1773,14 +1797,14 @@
         <v>14</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="16.5">
@@ -1788,16 +1812,16 @@
         <v>14</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="16.5">
@@ -1805,16 +1829,16 @@
         <v>10</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="16.5">
@@ -1822,16 +1846,16 @@
         <v>15</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="16.5">
@@ -1839,16 +1863,16 @@
         <v>16</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="16.5">
@@ -1869,13 +1893,13 @@
       </c>
     </row>
     <row r="45" spans="2:6" ht="20.25">
-      <c r="B45" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
+      <c r="B45" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
     </row>
     <row r="46" spans="2:6" ht="16.5">
       <c r="B46" s="1" t="s">
@@ -1914,7 +1938,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>10</v>
@@ -1923,7 +1947,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="16.5">
@@ -1931,7 +1955,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>10</v>
@@ -1940,7 +1964,7 @@
         <v>9</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="16.5">
@@ -1948,16 +1972,16 @@
         <v>6</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="16.5">
@@ -1965,16 +1989,16 @@
         <v>7</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="16.5">
@@ -1995,13 +2019,13 @@
       </c>
     </row>
     <row r="55" spans="2:6" ht="20.25">
-      <c r="B55" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
+      <c r="B55" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
     </row>
     <row r="56" spans="2:6" ht="16.5">
       <c r="B56" s="1" t="s">
@@ -2040,7 +2064,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>10</v>
@@ -2049,7 +2073,7 @@
         <v>9</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="16.5">
@@ -2057,7 +2081,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>10</v>
@@ -2066,7 +2090,7 @@
         <v>9</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="2:6" ht="16.5">
@@ -2074,26 +2098,26 @@
         <v>6</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="20.25">
-      <c r="B64" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
+      <c r="B64" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
     </row>
     <row r="65" spans="2:6" ht="16.5">
       <c r="B65" s="1" t="s">
@@ -2132,14 +2156,14 @@
         <v>2</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="16.5">
@@ -2147,14 +2171,14 @@
         <v>3</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="16.5">
@@ -2162,14 +2186,14 @@
         <v>4</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="16.5">
@@ -2177,14 +2201,14 @@
         <v>5</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="16.5">
@@ -2197,14 +2221,14 @@
         <v>7</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="16.5">
@@ -2212,14 +2236,14 @@
         <v>8</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="16.5">
@@ -2227,14 +2251,14 @@
         <v>9</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="16.5">
@@ -2242,14 +2266,14 @@
         <v>10</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="16.5">
@@ -2257,14 +2281,14 @@
         <v>11</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="16.5">
@@ -2272,14 +2296,14 @@
         <v>12</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="16.5">
@@ -2294,14 +2318,14 @@
         <v>13</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="16.5">
@@ -2309,14 +2333,14 @@
         <v>14</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="16.5">
@@ -2324,14 +2348,14 @@
         <v>15</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="16.5">
@@ -2339,14 +2363,14 @@
         <v>16</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="2:6" ht="16.5">
@@ -2367,13 +2391,13 @@
       </c>
     </row>
     <row r="86" spans="2:6" ht="20.25">
-      <c r="B86" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
+      <c r="B86" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
     </row>
     <row r="87" spans="2:6" ht="16.5">
       <c r="B87" s="1" t="s">
@@ -2412,7 +2436,7 @@
         <v>2</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>10</v>
@@ -2421,7 +2445,7 @@
         <v>9</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="2:6" ht="16.5">
@@ -2429,7 +2453,7 @@
         <v>3</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>10</v>
@@ -2438,7 +2462,7 @@
         <v>9</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="2:6" ht="16.5">
@@ -2446,16 +2470,16 @@
         <v>6</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="16.5">
@@ -2463,16 +2487,16 @@
         <v>7</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="2:6" ht="16.5">
@@ -2480,16 +2504,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E93" s="4">
         <v>0</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="16.5">
@@ -2497,16 +2521,16 @@
         <v>9</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E94" s="4">
         <v>0</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="16.5">
@@ -2514,16 +2538,16 @@
         <v>10</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E95" s="4">
         <v>0</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="16.5">
@@ -2531,16 +2555,16 @@
         <v>11</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E96" s="4">
         <v>0</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="2:6" ht="16.5">
@@ -2548,23 +2572,23 @@
         <v>12</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="20.25">
-      <c r="B100" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
+      <c r="B100" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
     </row>
     <row r="101" spans="2:6" ht="16.5">
       <c r="B101" s="1" t="s">
@@ -2603,7 +2627,7 @@
         <v>2</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>10</v>
@@ -2612,7 +2636,7 @@
         <v>9</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="2:6" ht="16.5">
@@ -2620,7 +2644,7 @@
         <v>3</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>10</v>
@@ -2629,7 +2653,7 @@
         <v>9</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="2:6" ht="16.5">
@@ -2637,16 +2661,16 @@
         <v>6</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="2:6" ht="16.5">
@@ -2654,16 +2678,16 @@
         <v>8</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E106" s="4">
         <v>0</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="2:6" ht="16.5">
@@ -2671,16 +2695,16 @@
         <v>9</v>
       </c>
       <c r="C107" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="E107" s="4">
         <v>0</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="2:6" ht="16.5">
@@ -2688,16 +2712,16 @@
         <v>10</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="2:6" ht="16.5">
@@ -2705,16 +2729,16 @@
         <v>11</v>
       </c>
       <c r="C109" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D109" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="E109" s="4">
         <v>0</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="2:6" ht="16.5">
@@ -2722,13 +2746,13 @@
         <v>12</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2751,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2761,347 +2785,351 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
+      <c r="A2" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="13" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5">
-      <c r="A2" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.5">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="20" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="20" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="20" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="20" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="20"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="20" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="21" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="20" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" ht="21" customHeight="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5">
+      <c r="A12" s="16"/>
+      <c r="B12" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="20" t="s">
+      <c r="C12" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5">
+      <c r="A13" s="16"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:6" ht="21" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="20" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" ht="33" customHeight="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6" ht="21" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5">
-      <c r="A12" s="24"/>
-      <c r="B12" s="19" t="s">
+      <c r="C15" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" ht="33" customHeight="1">
+      <c r="A16" s="16"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5">
-      <c r="A13" s="24"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:6" ht="33" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="19" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A17" s="16"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5">
+      <c r="A18" s="16"/>
+      <c r="B18" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5">
+      <c r="A19" s="16"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5">
+      <c r="A20" s="16"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:6" ht="33" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="1:6" ht="16.5">
-      <c r="A18" s="24"/>
-      <c r="B18" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="20" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5">
+      <c r="A21" s="16"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" ht="24" customHeight="1">
+      <c r="A22" s="16"/>
+      <c r="B22" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.5">
-      <c r="A19" s="24"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="20" t="s">
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A23" s="16"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="1:6" ht="16.5">
-      <c r="A20" s="24"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="1:6" ht="16.5">
-      <c r="A21" s="24"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="1:6" ht="24" customHeight="1">
-      <c r="A22" s="24"/>
-      <c r="B22" s="19" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5">
+      <c r="A24" s="16"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5">
+      <c r="A25" s="16"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="20" t="s">
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A26" s="16"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" ht="21" customHeight="1">
+      <c r="A27" s="16"/>
+      <c r="B27" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" spans="1:6" ht="16.5">
-      <c r="A24" s="24"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" spans="1:6" ht="16.5">
-      <c r="A25" s="24"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="20" t="s">
+      <c r="C27" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A26" s="24"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="1:6" ht="21" customHeight="1">
-      <c r="A27" s="24"/>
-      <c r="B27" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A28" s="24"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A29" s="24"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="16.5">
-      <c r="A30" s="24"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" ht="16.5">
-      <c r="A31" s="24"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" ht="16.5">
-      <c r="A32" s="24"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" ht="16.5">
-      <c r="A33" s="25"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B2:B11"/>
     <mergeCell ref="E2:E11"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="A2:A33"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B2:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/table.xlsx
+++ b/db/table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="159">
   <si>
     <t>ID</t>
   </si>
@@ -260,10 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>配货人id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>book_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,10 +300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>配送客户 0：本单位 ，其他单位输入单位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>total_price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -396,10 +388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>db_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>配货数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -437,10 +425,6 @@
   </si>
   <si>
     <t>消耗方式 1：销售 2：损耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核状态 0：销售默认审核通过 1：报损需要指定人员审核</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -643,6 +627,30 @@
   </si>
   <si>
     <t>消耗添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depot_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配货人id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：本单位 1：其他单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核状态 1：销售默认审核通过 0：报损需要指定人员审核</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -920,26 +928,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -950,14 +943,29 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1255,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:Q110"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100:F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1270,17 +1278,17 @@
   <sheetData>
     <row r="3" spans="2:17" ht="196.5" customHeight="1">
       <c r="H3" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="20.25" customHeight="1">
-      <c r="B8" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="B8" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="2:17" ht="16.5">
       <c r="B9" s="1" t="s">
@@ -1359,7 +1367,7 @@
     <row r="12" spans="2:17" ht="16.5">
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1486,13 +1494,13 @@
       <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="2:17" ht="20.25">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -1636,7 +1644,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>21</v>
@@ -1645,7 +1653,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
@@ -1797,14 +1805,14 @@
         <v>14</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="16.5">
@@ -1893,13 +1901,13 @@
       </c>
     </row>
     <row r="45" spans="2:6" ht="20.25">
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
     </row>
     <row r="46" spans="2:6" ht="16.5">
       <c r="B46" s="1" t="s">
@@ -1947,7 +1955,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="16.5">
@@ -1964,7 +1972,7 @@
         <v>9</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="16.5">
@@ -1998,7 +2006,7 @@
         <v>13</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="16.5">
@@ -2019,13 +2027,13 @@
       </c>
     </row>
     <row r="55" spans="2:6" ht="20.25">
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
     </row>
     <row r="56" spans="2:6" ht="16.5">
       <c r="B56" s="1" t="s">
@@ -2111,13 +2119,13 @@
       </c>
     </row>
     <row r="64" spans="2:6" ht="20.25">
-      <c r="B64" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
+      <c r="B64" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
     </row>
     <row r="65" spans="2:6" ht="16.5">
       <c r="B65" s="1" t="s">
@@ -2163,7 +2171,7 @@
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="16.5">
@@ -2171,14 +2179,14 @@
         <v>3</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="16.5">
@@ -2186,14 +2194,14 @@
         <v>4</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="16.5">
@@ -2201,34 +2209,43 @@
         <v>5</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="16.5">
       <c r="B71" s="3">
         <v>6</v>
       </c>
+      <c r="C71" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="72" spans="2:6" ht="16.5">
       <c r="B72" s="3">
         <v>7</v>
       </c>
       <c r="C72" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="8" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="16.5">
@@ -2236,14 +2253,14 @@
         <v>8</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="16.5">
@@ -2251,14 +2268,14 @@
         <v>9</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="16.5">
@@ -2266,14 +2283,14 @@
         <v>10</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="16.5">
@@ -2281,14 +2298,14 @@
         <v>11</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="16.5">
@@ -2296,14 +2313,14 @@
         <v>12</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="16.5">
@@ -2318,14 +2335,14 @@
         <v>13</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="16.5">
@@ -2333,14 +2350,14 @@
         <v>14</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="16.5">
@@ -2348,14 +2365,14 @@
         <v>15</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="16.5">
@@ -2363,7 +2380,7 @@
         <v>16</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>53</v>
@@ -2391,13 +2408,13 @@
       </c>
     </row>
     <row r="86" spans="2:6" ht="20.25">
-      <c r="B86" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
+      <c r="B86" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
     </row>
     <row r="87" spans="2:6" ht="16.5">
       <c r="B87" s="1" t="s">
@@ -2445,7 +2462,7 @@
         <v>9</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="2:6" ht="16.5">
@@ -2462,7 +2479,7 @@
         <v>9</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91" spans="2:6" ht="16.5">
@@ -2496,7 +2513,7 @@
         <v>13</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="2:6" ht="16.5">
@@ -2504,16 +2521,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E93" s="4">
         <v>0</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="16.5">
@@ -2521,7 +2538,7 @@
         <v>9</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>21</v>
@@ -2530,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="16.5">
@@ -2538,7 +2555,7 @@
         <v>10</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>21</v>
@@ -2547,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="16.5">
@@ -2555,7 +2572,7 @@
         <v>11</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>21</v>
@@ -2564,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="2:6" ht="16.5">
@@ -2575,20 +2592,20 @@
         <v>49</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="20.25">
-      <c r="B100" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
+      <c r="B100" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
     </row>
     <row r="101" spans="2:6" ht="16.5">
       <c r="B101" s="1" t="s">
@@ -2636,7 +2653,7 @@
         <v>9</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104" spans="2:6" ht="16.5">
@@ -2653,7 +2670,7 @@
         <v>9</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="2:6" ht="16.5">
@@ -2670,7 +2687,7 @@
         <v>13</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="2:6" ht="16.5">
@@ -2678,16 +2695,16 @@
         <v>8</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E106" s="4">
         <v>0</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="2:6" ht="16.5">
@@ -2704,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="2:6" ht="16.5">
@@ -2712,16 +2729,16 @@
         <v>10</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="2:6" ht="16.5">
@@ -2738,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="2:6" ht="16.5">
@@ -2746,13 +2763,13 @@
         <v>12</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2775,7 +2792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -2785,334 +2802,334 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
+      <c r="A2" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="12" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="13" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5">
-      <c r="A2" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.5">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="13" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="13" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="13" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="13" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="21" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" ht="21" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="13" t="s">
-        <v>127</v>
-      </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="16"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="17"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="16.5">
-      <c r="A12" s="16"/>
-      <c r="B12" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>155</v>
+      <c r="A12" s="25"/>
+      <c r="B12" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="16.5">
-      <c r="A13" s="16"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" ht="33" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="18" t="s">
-        <v>130</v>
+      <c r="A15" s="25"/>
+      <c r="B15" s="19" t="s">
+        <v>126</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="33" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="16.5">
-      <c r="A18" s="16"/>
-      <c r="B18" s="18" t="s">
-        <v>142</v>
+      <c r="A18" s="25"/>
+      <c r="B18" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="16.5">
-      <c r="A19" s="16"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" ht="16.5">
-      <c r="A20" s="16"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="16.5">
-      <c r="A21" s="16"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="18" t="s">
-        <v>136</v>
+      <c r="A22" s="25"/>
+      <c r="B22" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" ht="16.5">
-      <c r="A24" s="16"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="16.5">
-      <c r="A25" s="16"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1">
-      <c r="A27" s="16"/>
-      <c r="B27" s="18" t="s">
-        <v>141</v>
+      <c r="A27" s="25"/>
+      <c r="B27" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A28" s="16"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A29" s="16"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="16.5">
-      <c r="A30" s="16"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" ht="16.5">
-      <c r="A31" s="16"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" ht="16.5">
-      <c r="A32" s="16"/>
-      <c r="B32" s="19"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" ht="16.5">
-      <c r="A33" s="17"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
@@ -3120,16 +3137,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A2:A33"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B2:B11"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A2:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/table.xlsx
+++ b/db/table.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="160">
   <si>
     <t>ID</t>
   </si>
@@ -653,11 +653,15 @@
     <t>审核状态 1：销售默认审核通过 0：报损需要指定人员审核</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>syb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -885,7 +889,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -934,6 +938,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -943,28 +965,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -973,11 +980,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1051,6 +1063,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1085,6 +1098,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1260,10 +1274,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="B100" sqref="B100:F100"/>
     </sheetView>
   </sheetViews>
@@ -2789,11 +2803,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2802,12 +2816,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="12" t="s">
         <v>112</v>
       </c>
@@ -2816,111 +2830,111 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="16" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>115</v>
       </c>
       <c r="D2" s="13"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="16" t="s">
         <v>146</v>
       </c>
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D3" s="13"/>
-      <c r="E3" s="25"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="13" t="s">
         <v>117</v>
       </c>
       <c r="D4" s="13"/>
-      <c r="E4" s="25"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="13" t="s">
         <v>118</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="25"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="13" t="s">
         <v>119</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="25"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="13" t="s">
         <v>120</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="25"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="25"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="25"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="13" t="s">
         <v>123</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="25"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="26"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="16.5">
-      <c r="A12" s="25"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="19" t="s">
         <v>124</v>
       </c>
@@ -2928,31 +2942,33 @@
         <v>151</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="E12" s="27" t="s">
+        <v>159</v>
+      </c>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="16.5">
-      <c r="A13" s="25"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="20"/>
       <c r="C13" s="13" t="s">
         <v>145</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A14" s="25"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="20"/>
       <c r="C14" s="13" t="s">
         <v>125</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" ht="33" customHeight="1">
-      <c r="A15" s="25"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="19" t="s">
         <v>126</v>
       </c>
@@ -2964,8 +2980,8 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="33" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="13" t="s">
         <v>127</v>
       </c>
@@ -2974,15 +2990,15 @@
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="16.5">
-      <c r="A18" s="25"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="19" t="s">
         <v>138</v>
       </c>
@@ -2994,7 +3010,7 @@
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="16.5">
-      <c r="A19" s="25"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13" t="s">
         <v>131</v>
@@ -3004,7 +3020,7 @@
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" ht="16.5">
-      <c r="A20" s="25"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13" t="s">
         <v>129</v>
@@ -3014,15 +3030,15 @@
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="16.5">
-      <c r="A21" s="25"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
-      <c r="A22" s="25"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="19" t="s">
         <v>132</v>
       </c>
@@ -3034,7 +3050,7 @@
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A23" s="25"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13" t="s">
         <v>134</v>
@@ -3044,7 +3060,7 @@
       <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" ht="16.5">
-      <c r="A24" s="25"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13" t="s">
         <v>135</v>
@@ -3054,7 +3070,7 @@
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="16.5">
-      <c r="A25" s="25"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13" t="s">
         <v>136</v>
@@ -3064,7 +3080,7 @@
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A26" s="25"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -3072,7 +3088,7 @@
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1">
-      <c r="A27" s="25"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="19" t="s">
         <v>137</v>
       </c>
@@ -3084,7 +3100,7 @@
       <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A28" s="25"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13" t="s">
         <v>143</v>
@@ -3094,8 +3110,8 @@
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="13" t="s">
         <v>152</v>
       </c>
@@ -3104,7 +3120,7 @@
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="16.5">
-      <c r="A30" s="25"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="19"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -3112,7 +3128,7 @@
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" ht="16.5">
-      <c r="A31" s="25"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -3120,7 +3136,7 @@
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" ht="16.5">
-      <c r="A32" s="25"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -3128,25 +3144,26 @@
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" ht="16.5">
-      <c r="A33" s="26"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B2:B11"/>
     <mergeCell ref="E2:E11"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="A2:A33"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="E12:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3155,7 +3172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/db/table.xlsx
+++ b/db/table.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="930" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="161">
   <si>
     <t>ID</t>
   </si>
@@ -655,6 +655,10 @@
   </si>
   <si>
     <t>syb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -938,24 +942,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -965,11 +951,29 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -984,12 +988,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1031,7 +1038,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1066,7 +1073,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2807,7 +2814,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2816,12 +2823,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
       <c r="E1" s="12" t="s">
         <v>112</v>
       </c>
@@ -2830,111 +2837,111 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="24" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>115</v>
       </c>
       <c r="D2" s="13"/>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="24" t="s">
         <v>146</v>
       </c>
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D3" s="13"/>
-      <c r="E3" s="17"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="13" t="s">
         <v>117</v>
       </c>
       <c r="D4" s="13"/>
-      <c r="E4" s="17"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="13" t="s">
         <v>118</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="17"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="13" t="s">
         <v>119</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="17"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="13" t="s">
         <v>120</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="17"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="17"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="13" t="s">
         <v>123</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="17"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="18"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="16.5">
-      <c r="A12" s="17"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="19" t="s">
         <v>124</v>
       </c>
@@ -2948,27 +2955,27 @@
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="16.5">
-      <c r="A13" s="17"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="20"/>
       <c r="C13" s="13" t="s">
         <v>145</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A14" s="17"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="20"/>
       <c r="C14" s="13" t="s">
         <v>125</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="18"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" ht="33" customHeight="1">
-      <c r="A15" s="17"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="19" t="s">
         <v>126</v>
       </c>
@@ -2976,29 +2983,31 @@
         <v>128</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="E15" s="27" t="s">
+        <v>160</v>
+      </c>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="33" customHeight="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="13" t="s">
         <v>127</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="16.5">
-      <c r="A18" s="17"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="19" t="s">
         <v>138</v>
       </c>
@@ -3010,7 +3019,7 @@
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="16.5">
-      <c r="A19" s="17"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13" t="s">
         <v>131</v>
@@ -3020,7 +3029,7 @@
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" ht="16.5">
-      <c r="A20" s="17"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13" t="s">
         <v>129</v>
@@ -3030,15 +3039,15 @@
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="16.5">
-      <c r="A21" s="17"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
-      <c r="A22" s="17"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="19" t="s">
         <v>132</v>
       </c>
@@ -3050,7 +3059,7 @@
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A23" s="17"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13" t="s">
         <v>134</v>
@@ -3060,7 +3069,7 @@
       <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" ht="16.5">
-      <c r="A24" s="17"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13" t="s">
         <v>135</v>
@@ -3070,7 +3079,7 @@
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="16.5">
-      <c r="A25" s="17"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13" t="s">
         <v>136</v>
@@ -3080,7 +3089,7 @@
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A26" s="17"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -3088,7 +3097,7 @@
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1">
-      <c r="A27" s="17"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="19" t="s">
         <v>137</v>
       </c>
@@ -3100,7 +3109,7 @@
       <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A28" s="17"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13" t="s">
         <v>143</v>
@@ -3110,8 +3119,8 @@
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A29" s="17"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="13" t="s">
         <v>152</v>
       </c>
@@ -3120,7 +3129,7 @@
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="16.5">
-      <c r="A30" s="17"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="19"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -3128,7 +3137,7 @@
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" ht="16.5">
-      <c r="A31" s="17"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -3136,7 +3145,7 @@
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" ht="16.5">
-      <c r="A32" s="17"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -3144,26 +3153,27 @@
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" ht="16.5">
-      <c r="A33" s="18"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B2:B11"/>
+  <mergeCells count="12">
     <mergeCell ref="E2:E11"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="A2:A33"/>
     <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B2:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/table.xlsx
+++ b/db/table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="1860" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="162">
   <si>
     <t>ID</t>
   </si>
@@ -655,6 +655,10 @@
   </si>
   <si>
     <t>syb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -942,30 +946,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -976,7 +956,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2813,8 +2817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2823,12 +2827,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="12" t="s">
         <v>112</v>
       </c>
@@ -2837,111 +2841,111 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="16" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>115</v>
       </c>
       <c r="D2" s="13"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="16" t="s">
         <v>146</v>
       </c>
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D3" s="13"/>
-      <c r="E3" s="25"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="13" t="s">
         <v>117</v>
       </c>
       <c r="D4" s="13"/>
-      <c r="E4" s="25"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="13" t="s">
         <v>118</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="25"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="13" t="s">
         <v>119</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="25"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="13" t="s">
         <v>120</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="25"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="25"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="25"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="13" t="s">
         <v>123</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="25"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="26"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="16.5">
-      <c r="A12" s="25"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="19" t="s">
         <v>124</v>
       </c>
@@ -2949,33 +2953,33 @@
         <v>151</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="22" t="s">
         <v>159</v>
       </c>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="16.5">
-      <c r="A13" s="25"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="20"/>
       <c r="C13" s="13" t="s">
         <v>145</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="25"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A14" s="25"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="20"/>
       <c r="C14" s="13" t="s">
         <v>125</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="26"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" ht="33" customHeight="1">
-      <c r="A15" s="25"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="19" t="s">
         <v>126</v>
       </c>
@@ -2983,31 +2987,31 @@
         <v>128</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="22" t="s">
         <v>160</v>
       </c>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="33" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="13" t="s">
         <v>127</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="26"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="16.5">
-      <c r="A18" s="25"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="19" t="s">
         <v>138</v>
       </c>
@@ -3015,39 +3019,41 @@
         <v>130</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="E18" s="22" t="s">
+        <v>161</v>
+      </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="16.5">
-      <c r="A19" s="25"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13" t="s">
         <v>131</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" ht="16.5">
-      <c r="A20" s="25"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13" t="s">
         <v>129</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="16.5">
-      <c r="A21" s="25"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
-      <c r="A22" s="25"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="19" t="s">
         <v>132</v>
       </c>
@@ -3059,7 +3065,7 @@
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A23" s="25"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13" t="s">
         <v>134</v>
@@ -3069,7 +3075,7 @@
       <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" ht="16.5">
-      <c r="A24" s="25"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13" t="s">
         <v>135</v>
@@ -3079,7 +3085,7 @@
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="16.5">
-      <c r="A25" s="25"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13" t="s">
         <v>136</v>
@@ -3089,7 +3095,7 @@
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A26" s="25"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -3097,7 +3103,7 @@
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1">
-      <c r="A27" s="25"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="19" t="s">
         <v>137</v>
       </c>
@@ -3109,7 +3115,7 @@
       <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A28" s="25"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13" t="s">
         <v>143</v>
@@ -3119,8 +3125,8 @@
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="13" t="s">
         <v>152</v>
       </c>
@@ -3129,7 +3135,7 @@
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="16.5">
-      <c r="A30" s="25"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="19"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -3137,7 +3143,7 @@
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" ht="16.5">
-      <c r="A31" s="25"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -3145,7 +3151,7 @@
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" ht="16.5">
-      <c r="A32" s="25"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -3153,15 +3159,20 @@
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" ht="16.5">
-      <c r="A33" s="26"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B2:B11"/>
     <mergeCell ref="E2:E11"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B27:B29"/>
@@ -3169,11 +3180,7 @@
     <mergeCell ref="A2:A33"/>
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="E18:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/table.xlsx
+++ b/db/table.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="164">
   <si>
     <t>ID</t>
   </si>
@@ -665,11 +665,19 @@
     <t>gw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>syb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -897,7 +905,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,6 +954,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -956,31 +988,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1042,7 +1053,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1074,10 +1085,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1109,7 +1119,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1285,7 +1294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:Q110"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
@@ -2814,11 +2823,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2827,12 +2836,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
       <c r="E1" s="12" t="s">
         <v>112</v>
       </c>
@@ -2841,111 +2850,111 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="24" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>115</v>
       </c>
       <c r="D2" s="13"/>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="24" t="s">
         <v>146</v>
       </c>
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D3" s="13"/>
-      <c r="E3" s="17"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="13" t="s">
         <v>117</v>
       </c>
       <c r="D4" s="13"/>
-      <c r="E4" s="17"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="13" t="s">
         <v>118</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="17"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="13" t="s">
         <v>119</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="17"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="13" t="s">
         <v>120</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="17"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="17"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="13" t="s">
         <v>123</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="17"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="18"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="16.5">
-      <c r="A12" s="17"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="19" t="s">
         <v>124</v>
       </c>
@@ -2953,33 +2962,33 @@
         <v>151</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="27" t="s">
         <v>159</v>
       </c>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="16.5">
-      <c r="A13" s="17"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="20"/>
       <c r="C13" s="13" t="s">
         <v>145</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A14" s="17"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="20"/>
       <c r="C14" s="13" t="s">
         <v>125</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="18"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" ht="33" customHeight="1">
-      <c r="A15" s="17"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="19" t="s">
         <v>126</v>
       </c>
@@ -2987,31 +2996,31 @@
         <v>128</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="27" t="s">
         <v>160</v>
       </c>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="33" customHeight="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="13" t="s">
         <v>127</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="18"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="16.5">
-      <c r="A18" s="17"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="19" t="s">
         <v>138</v>
       </c>
@@ -3019,41 +3028,41 @@
         <v>130</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="27" t="s">
         <v>161</v>
       </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="16.5">
-      <c r="A19" s="17"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13" t="s">
         <v>131</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="17"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" ht="16.5">
-      <c r="A20" s="17"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13" t="s">
         <v>129</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="18"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="16.5">
-      <c r="A21" s="17"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
-      <c r="A22" s="17"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="19" t="s">
         <v>132</v>
       </c>
@@ -3061,41 +3070,47 @@
         <v>133</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="E22" s="28" t="s">
+        <v>162</v>
+      </c>
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A23" s="17"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13" t="s">
         <v>134</v>
       </c>
       <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="E23" s="27" t="s">
+        <v>163</v>
+      </c>
       <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" ht="16.5">
-      <c r="A24" s="17"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13" t="s">
         <v>135</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="16.5">
-      <c r="A25" s="17"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13" t="s">
         <v>136</v>
       </c>
       <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="E25" s="28" t="s">
+        <v>162</v>
+      </c>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A26" s="17"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -3103,7 +3118,7 @@
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1">
-      <c r="A27" s="17"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="19" t="s">
         <v>137</v>
       </c>
@@ -3111,31 +3126,33 @@
         <v>139</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="E27" s="27" t="s">
+        <v>162</v>
+      </c>
       <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A28" s="17"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13" t="s">
         <v>143</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A29" s="17"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="13" t="s">
         <v>152</v>
       </c>
       <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="16.5">
-      <c r="A30" s="17"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="19"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -3143,7 +3160,7 @@
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" ht="16.5">
-      <c r="A31" s="17"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -3151,7 +3168,7 @@
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" ht="16.5">
-      <c r="A32" s="17"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -3159,20 +3176,15 @@
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" ht="16.5">
-      <c r="A33" s="18"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B2:B11"/>
+  <mergeCells count="15">
     <mergeCell ref="E2:E11"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B27:B29"/>
@@ -3181,6 +3193,13 @@
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B2:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3189,7 +3208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/db/table.xlsx
+++ b/db/table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="1860" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="171">
   <si>
     <t>ID</t>
   </si>
@@ -671,6 +671,34 @@
   </si>
   <si>
     <t>gw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_consume_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_entry_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品消耗表id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品库存表id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table 8: wx_product_consume_entry   成品消耗子表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sycount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -905,7 +933,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -951,32 +979,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -988,10 +995,34 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1295,15 +1326,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:Q110"/>
+  <dimension ref="B3:Q120"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100:F100"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
     <col min="6" max="6" width="33.75" customWidth="1"/>
@@ -1316,13 +1347,13 @@
       </c>
     </row>
     <row r="8" spans="2:17" ht="20.25" customHeight="1">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="2:17" ht="16.5">
       <c r="B9" s="1" t="s">
@@ -1528,13 +1559,13 @@
       <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="2:17" ht="20.25">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -1935,13 +1966,13 @@
       </c>
     </row>
     <row r="45" spans="2:6" ht="20.25">
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
     </row>
     <row r="46" spans="2:6" ht="16.5">
       <c r="B46" s="1" t="s">
@@ -2061,13 +2092,13 @@
       </c>
     </row>
     <row r="55" spans="2:6" ht="20.25">
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
     </row>
     <row r="56" spans="2:6" ht="16.5">
       <c r="B56" s="1" t="s">
@@ -2153,13 +2184,13 @@
       </c>
     </row>
     <row r="64" spans="2:6" ht="20.25">
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
     </row>
     <row r="65" spans="2:6" ht="16.5">
       <c r="B65" s="1" t="s">
@@ -2442,13 +2473,13 @@
       </c>
     </row>
     <row r="86" spans="2:6" ht="20.25">
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
     </row>
     <row r="87" spans="2:6" ht="16.5">
       <c r="B87" s="1" t="s">
@@ -2623,79 +2654,79 @@
         <v>12</v>
       </c>
       <c r="C97" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="29">
+        <v>0</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" ht="16.5">
+      <c r="B98" s="3">
+        <v>12</v>
+      </c>
+      <c r="C98" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D98" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F98" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="20.25">
-      <c r="B100" s="15" t="s">
+    <row r="101" spans="2:6" ht="20.25">
+      <c r="B101" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-    </row>
-    <row r="101" spans="2:6" ht="16.5">
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+    </row>
+    <row r="102" spans="2:6" ht="16.5">
+      <c r="B102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E102" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="2:6" ht="16.5">
-      <c r="B102" s="3">
-        <v>1</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F102" s="4"/>
     </row>
     <row r="103" spans="2:6" ht="16.5">
       <c r="B103" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>148</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="4"/>
     </row>
     <row r="104" spans="2:6" ht="16.5">
       <c r="B104" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>10</v>
@@ -2704,113 +2735,230 @@
         <v>9</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="2:6" ht="16.5">
       <c r="B105" s="3">
-        <v>6</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>101</v>
+        <v>9</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="2:6" ht="16.5">
       <c r="B106" s="3">
-        <v>8</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E106" s="4">
-        <v>0</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>99</v>
+        <v>6</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="2:6" ht="16.5">
       <c r="B107" s="3">
-        <v>9</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="E107" s="4">
         <v>0</v>
       </c>
-      <c r="F107" s="8" t="s">
-        <v>100</v>
+      <c r="F107" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="2:6" ht="16.5">
       <c r="B108" s="3">
-        <v>10</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>104</v>
+        <v>9</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E108" s="4">
+        <v>0</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="2:6" ht="16.5">
       <c r="B109" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E109" s="4">
-        <v>0</v>
+      <c r="E109" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="2:6" ht="16.5">
       <c r="B110" s="3">
+        <v>11</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E110" s="4">
+        <v>0</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" ht="16.5">
+      <c r="B111" s="3">
         <v>12</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C111" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D111" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="F111" s="7" t="s">
         <v>142</v>
       </c>
     </row>
+    <row r="114" spans="2:6" ht="20.25">
+      <c r="B114" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+    </row>
+    <row r="115" spans="2:6" ht="16.5">
+      <c r="B115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" ht="16.5">
+      <c r="B116" s="3">
+        <v>1</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="2:6" ht="16.5">
+      <c r="B117" s="3">
+        <v>2</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" ht="16.5">
+      <c r="B118" s="3">
+        <v>3</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" ht="16.5">
+      <c r="B119" s="3">
+        <v>6</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" ht="16.5">
+      <c r="B120" s="3"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B114:F114"/>
     <mergeCell ref="B64:F64"/>
     <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B45:F45"/>
@@ -2826,7 +2974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -2836,12 +2984,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="12" t="s">
         <v>112</v>
       </c>
@@ -2850,334 +2998,334 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="17" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>115</v>
       </c>
       <c r="D2" s="13"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="17" t="s">
         <v>146</v>
       </c>
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D3" s="13"/>
-      <c r="E3" s="25"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="13" t="s">
         <v>117</v>
       </c>
       <c r="D4" s="13"/>
-      <c r="E4" s="25"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="13" t="s">
         <v>118</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="25"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="13" t="s">
         <v>119</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="25"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="13" t="s">
         <v>120</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="25"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="25"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="25"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="13" t="s">
         <v>123</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="25"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="26"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="16.5">
-      <c r="A12" s="25"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="20" t="s">
         <v>124</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>151</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="23" t="s">
         <v>159</v>
       </c>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="16.5">
-      <c r="A13" s="25"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="13" t="s">
         <v>145</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="25"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="13" t="s">
         <v>125</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="26"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" ht="33" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="20" t="s">
         <v>126</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>128</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="23" t="s">
         <v>160</v>
       </c>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="33" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="13" t="s">
         <v>127</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="26"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="16.5">
-      <c r="A18" s="25"/>
-      <c r="B18" s="19" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="20" t="s">
         <v>138</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>130</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="23" t="s">
         <v>161</v>
       </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="16.5">
-      <c r="A19" s="25"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="13" t="s">
         <v>131</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="25"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" ht="16.5">
-      <c r="A20" s="25"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="13" t="s">
         <v>129</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="26"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="16.5">
-      <c r="A21" s="25"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="20" t="s">
         <v>132</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="15" t="s">
         <v>162</v>
       </c>
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="13" t="s">
         <v>134</v>
       </c>
       <c r="D23" s="13"/>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="23" t="s">
         <v>163</v>
       </c>
       <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" ht="16.5">
-      <c r="A24" s="25"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="13" t="s">
         <v>135</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="E24" s="26"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="16.5">
-      <c r="A25" s="25"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="13" t="s">
         <v>136</v>
       </c>
       <c r="D25" s="13"/>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="15" t="s">
         <v>162</v>
       </c>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="19" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="20" t="s">
         <v>137</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>139</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="23" t="s">
         <v>162</v>
       </c>
       <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="13" t="s">
         <v>143</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="25"/>
+      <c r="E28" s="18"/>
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="13" t="s">
         <v>152</v>
       </c>
       <c r="D29" s="13"/>
-      <c r="E29" s="26"/>
+      <c r="E29" s="19"/>
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="16.5">
-      <c r="A30" s="25"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" ht="16.5">
-      <c r="A31" s="25"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" ht="16.5">
-      <c r="A32" s="25"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" ht="16.5">
-      <c r="A33" s="26"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
@@ -3185,6 +3333,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B2:B11"/>
     <mergeCell ref="E2:E11"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B27:B29"/>
@@ -3195,11 +3348,6 @@
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="E27:E29"/>
     <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B2:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/table.xlsx
+++ b/db/table.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -228,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Table 2: wx_purchase   采购表（市场库存表）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Table 3: wx_product_template   成品模板主表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -701,11 +697,15 @@
     <t>剩余数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Table 2: wx_purchase   采购表（食材库存表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -982,8 +982,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -995,34 +1022,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1042,7 +1042,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1116,6 +1116,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1150,6 +1151,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1325,11 +1327,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1343,17 +1345,17 @@
   <sheetData>
     <row r="3" spans="2:17" ht="196.5" customHeight="1">
       <c r="H3" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="20.25" customHeight="1">
-      <c r="B8" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="B8" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="2:17" ht="16.5">
       <c r="B9" s="1" t="s">
@@ -1432,7 +1434,7 @@
     <row r="12" spans="2:17" ht="16.5">
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1559,13 +1561,13 @@
       <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="2:17" ht="20.25">
-      <c r="B20" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="B20" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -1709,7 +1711,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>21</v>
@@ -1718,7 +1720,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
@@ -1870,14 +1872,14 @@
         <v>14</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="16.5">
@@ -1966,13 +1968,13 @@
       </c>
     </row>
     <row r="45" spans="2:6" ht="20.25">
-      <c r="B45" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
+      <c r="B45" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
     </row>
     <row r="46" spans="2:6" ht="16.5">
       <c r="B46" s="1" t="s">
@@ -2011,7 +2013,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>10</v>
@@ -2020,7 +2022,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="16.5">
@@ -2028,7 +2030,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>10</v>
@@ -2037,7 +2039,7 @@
         <v>9</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="16.5">
@@ -2045,7 +2047,7 @@
         <v>6</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>24</v>
@@ -2054,7 +2056,7 @@
         <v>13</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="16.5">
@@ -2071,7 +2073,7 @@
         <v>13</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="16.5">
@@ -2092,13 +2094,13 @@
       </c>
     </row>
     <row r="55" spans="2:6" ht="20.25">
-      <c r="B55" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
+      <c r="B55" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
     </row>
     <row r="56" spans="2:6" ht="16.5">
       <c r="B56" s="1" t="s">
@@ -2184,13 +2186,13 @@
       </c>
     </row>
     <row r="64" spans="2:6" ht="20.25">
-      <c r="B64" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
+      <c r="B64" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
     </row>
     <row r="65" spans="2:6" ht="16.5">
       <c r="B65" s="1" t="s">
@@ -2229,14 +2231,14 @@
         <v>2</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="16.5">
@@ -2244,14 +2246,14 @@
         <v>3</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="16.5">
@@ -2259,14 +2261,14 @@
         <v>4</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="16.5">
@@ -2274,14 +2276,14 @@
         <v>5</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="2:6" ht="16.5">
@@ -2289,13 +2291,13 @@
         <v>6</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F71" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="16.5">
@@ -2303,14 +2305,14 @@
         <v>7</v>
       </c>
       <c r="C72" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="16.5">
@@ -2318,14 +2320,14 @@
         <v>8</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="16.5">
@@ -2333,14 +2335,14 @@
         <v>9</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="16.5">
@@ -2348,14 +2350,14 @@
         <v>10</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="16.5">
@@ -2363,14 +2365,14 @@
         <v>11</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="16.5">
@@ -2378,14 +2380,14 @@
         <v>12</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="16.5">
@@ -2400,14 +2402,14 @@
         <v>13</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="16.5">
@@ -2415,14 +2417,14 @@
         <v>14</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="16.5">
@@ -2430,14 +2432,14 @@
         <v>15</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="16.5">
@@ -2445,7 +2447,7 @@
         <v>16</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>53</v>
@@ -2473,13 +2475,13 @@
       </c>
     </row>
     <row r="86" spans="2:6" ht="20.25">
-      <c r="B86" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
+      <c r="B86" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
     </row>
     <row r="87" spans="2:6" ht="16.5">
       <c r="B87" s="1" t="s">
@@ -2518,7 +2520,7 @@
         <v>2</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>10</v>
@@ -2527,7 +2529,7 @@
         <v>9</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="2:6" ht="16.5">
@@ -2535,7 +2537,7 @@
         <v>3</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>10</v>
@@ -2544,7 +2546,7 @@
         <v>9</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="2:6" ht="16.5">
@@ -2552,7 +2554,7 @@
         <v>6</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>24</v>
@@ -2561,7 +2563,7 @@
         <v>13</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="16.5">
@@ -2578,7 +2580,7 @@
         <v>13</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="2:6" ht="16.5">
@@ -2586,16 +2588,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="E93" s="4">
         <v>0</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="16.5">
@@ -2603,7 +2605,7 @@
         <v>9</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>21</v>
@@ -2612,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="16.5">
@@ -2620,7 +2622,7 @@
         <v>10</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>21</v>
@@ -2629,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="16.5">
@@ -2637,7 +2639,7 @@
         <v>11</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>21</v>
@@ -2646,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="2:6" ht="16.5">
@@ -2654,16 +2656,16 @@
         <v>12</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E97" s="29">
+      <c r="E97" s="16">
         <v>0</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="2:6" ht="16.5">
@@ -2674,20 +2676,20 @@
         <v>49</v>
       </c>
       <c r="D98" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F98" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F98" s="7" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="101" spans="2:6" ht="20.25">
-      <c r="B101" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
+      <c r="B101" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
     </row>
     <row r="102" spans="2:6" ht="16.5">
       <c r="B102" s="1" t="s">
@@ -2726,7 +2728,7 @@
         <v>2</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>10</v>
@@ -2735,7 +2737,7 @@
         <v>9</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105" spans="2:6" ht="16.5">
@@ -2743,7 +2745,7 @@
         <v>3</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>10</v>
@@ -2752,7 +2754,7 @@
         <v>9</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="2:6" ht="16.5">
@@ -2760,7 +2762,7 @@
         <v>6</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>24</v>
@@ -2769,7 +2771,7 @@
         <v>13</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="2:6" ht="16.5">
@@ -2777,16 +2779,16 @@
         <v>8</v>
       </c>
       <c r="C107" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="E107" s="4">
         <v>0</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="108" spans="2:6" ht="16.5">
@@ -2803,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109" spans="2:6" ht="16.5">
@@ -2811,16 +2813,16 @@
         <v>10</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E109" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F109" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="110" spans="2:6" ht="16.5">
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="2:6" ht="16.5">
@@ -2845,23 +2847,23 @@
         <v>12</v>
       </c>
       <c r="C111" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D111" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="F111" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F111" s="7" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="114" spans="2:6" ht="20.25">
-      <c r="B114" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16"/>
+      <c r="B114" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
     </row>
     <row r="115" spans="2:6" ht="16.5">
       <c r="B115" s="1" t="s">
@@ -2900,7 +2902,7 @@
         <v>2</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>10</v>
@@ -2909,7 +2911,7 @@
         <v>9</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118" spans="2:6" ht="16.5">
@@ -2917,7 +2919,7 @@
         <v>3</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>10</v>
@@ -2926,7 +2928,7 @@
         <v>9</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="2:6" ht="16.5">
@@ -2943,7 +2945,7 @@
         <v>13</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="120" spans="2:6" ht="16.5">
@@ -2971,7 +2973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2984,348 +2986,348 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
+      <c r="A2" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5">
-      <c r="A2" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.5">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="21" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" ht="21" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="18"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="19"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="16.5">
-      <c r="A12" s="18"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5">
+      <c r="A13" s="27"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A14" s="27"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="23" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" ht="33" customHeight="1">
+      <c r="A15" s="27"/>
+      <c r="B15" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5">
-      <c r="A13" s="18"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" ht="33" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="20" t="s">
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" ht="33" customHeight="1">
+      <c r="A16" s="27"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:6" ht="33" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="13" t="s">
-        <v>127</v>
-      </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="19"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="16.5">
-      <c r="A18" s="18"/>
-      <c r="B18" s="20" t="s">
-        <v>138</v>
+      <c r="A18" s="27"/>
+      <c r="B18" s="21" t="s">
+        <v>137</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5">
+      <c r="A19" s="27"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.5">
-      <c r="A19" s="18"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="18"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" ht="16.5">
-      <c r="A20" s="18"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="19"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="16.5">
-      <c r="A21" s="18"/>
-      <c r="B21" s="22"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="20" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>132</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>133</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A23" s="27"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="13" t="s">
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5">
+      <c r="A24" s="27"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:6" ht="16.5">
-      <c r="A24" s="18"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="13" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5">
+      <c r="A25" s="27"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:6" ht="16.5">
-      <c r="A25" s="18"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="20" t="s">
-        <v>137</v>
+      <c r="A27" s="27"/>
+      <c r="B27" s="21" t="s">
+        <v>136</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="23" t="s">
-        <v>162</v>
+      <c r="E27" s="29" t="s">
+        <v>161</v>
       </c>
       <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="18"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A29" s="18"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D29" s="13"/>
-      <c r="E29" s="19"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="16.5">
-      <c r="A30" s="18"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" ht="16.5">
-      <c r="A31" s="18"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" ht="16.5">
-      <c r="A32" s="18"/>
-      <c r="B32" s="21"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" ht="16.5">
-      <c r="A33" s="19"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
@@ -3333,11 +3335,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B2:B11"/>
     <mergeCell ref="E2:E11"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B27:B29"/>
@@ -3348,6 +3345,11 @@
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="E27:E29"/>
     <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B2:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3356,7 +3358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/db/table.xlsx
+++ b/db/table.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="4650" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="181">
   <si>
     <t>ID</t>
   </si>
@@ -280,10 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>send_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发货状态 0：未发货 1：已发货</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,10 +308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>send_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发货时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -389,10 +381,6 @@
   </si>
   <si>
     <t>Table 5: wx_procut   成品配、发、验货主表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table 6: wx_product_entry   成品配、发、验货详细表（成品库存表）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -699,6 +687,58 @@
   </si>
   <si>
     <t>Table 2: wx_purchase   采购表（食材库存表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table 6: wx_product_entry   成品配、发、验货详细表（成品库存表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx_product.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchase_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table 9: wx_pf_map   成品配、发、验货食材消耗明细表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -933,7 +973,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -985,32 +1025,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1022,7 +1041,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1042,7 +1085,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1084,7 +1127,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1119,7 +1162,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1328,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Q120"/>
+  <dimension ref="B3:Q131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1345,17 +1388,17 @@
   <sheetData>
     <row r="3" spans="2:17" ht="196.5" customHeight="1">
       <c r="H3" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="20.25" customHeight="1">
-      <c r="B8" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="B8" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="2:17" ht="16.5">
       <c r="B9" s="1" t="s">
@@ -1434,7 +1477,7 @@
     <row r="12" spans="2:17" ht="16.5">
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1561,13 +1604,13 @@
       <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="2:17" ht="20.25">
-      <c r="B20" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="B20" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -1711,7 +1754,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>21</v>
@@ -1720,7 +1763,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
@@ -1872,14 +1915,14 @@
         <v>14</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="16.5">
@@ -1968,13 +2011,13 @@
       </c>
     </row>
     <row r="45" spans="2:6" ht="20.25">
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" spans="2:6" ht="16.5">
       <c r="B46" s="1" t="s">
@@ -2022,7 +2065,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="16.5">
@@ -2039,7 +2082,7 @@
         <v>9</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="16.5">
@@ -2073,7 +2116,7 @@
         <v>13</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="16.5">
@@ -2094,13 +2137,13 @@
       </c>
     </row>
     <row r="55" spans="2:6" ht="20.25">
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
     </row>
     <row r="56" spans="2:6" ht="16.5">
       <c r="B56" s="1" t="s">
@@ -2186,13 +2229,13 @@
       </c>
     </row>
     <row r="64" spans="2:6" ht="20.25">
-      <c r="B64" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
+      <c r="B64" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
     </row>
     <row r="65" spans="2:6" ht="16.5">
       <c r="B65" s="1" t="s">
@@ -2238,7 +2281,7 @@
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="16.5">
@@ -2291,13 +2334,13 @@
         <v>6</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F71" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="16.5">
@@ -2305,14 +2348,14 @@
         <v>7</v>
       </c>
       <c r="C72" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="16.5">
@@ -2320,14 +2363,14 @@
         <v>8</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="16.5">
@@ -2335,14 +2378,14 @@
         <v>9</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="16.5">
@@ -2350,14 +2393,14 @@
         <v>10</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="16.5">
@@ -2365,14 +2408,14 @@
         <v>11</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="16.5">
@@ -2380,14 +2423,14 @@
         <v>12</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="16.5">
@@ -2402,14 +2445,14 @@
         <v>13</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="16.5">
@@ -2417,14 +2460,14 @@
         <v>14</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="16.5">
@@ -2432,14 +2475,14 @@
         <v>15</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="16.5">
@@ -2447,7 +2490,7 @@
         <v>16</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>53</v>
@@ -2475,13 +2518,13 @@
       </c>
     </row>
     <row r="86" spans="2:6" ht="20.25">
-      <c r="B86" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
+      <c r="B86" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
     </row>
     <row r="87" spans="2:6" ht="16.5">
       <c r="B87" s="1" t="s">
@@ -2520,16 +2563,14 @@
         <v>2</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E89" s="5"/>
       <c r="F89" s="4" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="2:6" ht="16.5">
@@ -2537,7 +2578,7 @@
         <v>3</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>10</v>
@@ -2546,206 +2587,207 @@
         <v>9</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="2:6" ht="16.5">
       <c r="B91" s="3">
-        <v>6</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>57</v>
+        <v>9</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="16.5">
       <c r="B92" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>33</v>
+        <v>56</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="2:6" ht="16.5">
       <c r="B93" s="3">
-        <v>8</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E93" s="4">
-        <v>0</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>89</v>
+        <v>33</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="16.5">
       <c r="B94" s="3">
-        <v>9</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="E94" s="4">
         <v>0</v>
       </c>
-      <c r="F94" s="8" t="s">
-        <v>94</v>
+      <c r="F94" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="16.5">
       <c r="B95" s="3">
-        <v>10</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D95" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E95" s="4">
         <v>0</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="16.5">
       <c r="B96" s="3">
-        <v>11</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D96" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D96" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E96" s="4">
         <v>0</v>
       </c>
-      <c r="F96" s="7" t="s">
-        <v>93</v>
+      <c r="F96" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="2:6" ht="16.5">
       <c r="B97" s="3">
-        <v>12</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D97" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E97" s="16">
+      <c r="C97" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97" s="4">
         <v>0</v>
       </c>
-      <c r="F97" s="7" t="s">
-        <v>169</v>
+      <c r="F97" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="2:6" ht="16.5">
       <c r="B98" s="3">
+        <v>11</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="4">
+        <v>0</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" ht="16.5">
+      <c r="B99" s="3">
         <v>12</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C99" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D98" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" ht="20.25">
-      <c r="B101" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-    </row>
-    <row r="102" spans="2:6" ht="16.5">
-      <c r="B102" s="1" t="s">
+      <c r="D99" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E99" s="9"/>
+      <c r="F99" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" ht="20.25">
+      <c r="B102" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+    </row>
+    <row r="103" spans="2:6" ht="16.5">
+      <c r="B103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="2:6" ht="16.5">
-      <c r="B103" s="3">
-        <v>1</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F103" s="4"/>
     </row>
     <row r="104" spans="2:6" ht="16.5">
       <c r="B104" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>147</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="4"/>
     </row>
     <row r="105" spans="2:6" ht="16.5">
       <c r="B105" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>10</v>
@@ -2754,172 +2796,172 @@
         <v>9</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106" spans="2:6" ht="16.5">
       <c r="B106" s="3">
-        <v>6</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>100</v>
+        <v>9</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="2:6" ht="16.5">
       <c r="B107" s="3">
-        <v>8</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E107" s="4">
-        <v>0</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="2:6" ht="16.5">
       <c r="B108" s="3">
-        <v>9</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="E108" s="4">
         <v>0</v>
       </c>
-      <c r="F108" s="8" t="s">
-        <v>99</v>
+      <c r="F108" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="109" spans="2:6" ht="16.5">
       <c r="B109" s="3">
-        <v>10</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>103</v>
+        <v>9</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E109" s="4">
+        <v>0</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="110" spans="2:6" ht="16.5">
       <c r="B110" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E110" s="4">
-        <v>0</v>
+      <c r="E110" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="2:6" ht="16.5">
       <c r="B111" s="3">
+        <v>11</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E111" s="4">
+        <v>0</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" ht="16.5">
+      <c r="B112" s="3">
         <v>12</v>
       </c>
-      <c r="C111" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" ht="20.25">
-      <c r="B114" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="C114" s="17"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="17"/>
-    </row>
-    <row r="115" spans="2:6" ht="16.5">
-      <c r="B115" s="1" t="s">
+      <c r="C112" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" ht="20.25">
+      <c r="B115" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+    </row>
+    <row r="116" spans="2:6" ht="16.5">
+      <c r="B116" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="F116" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="2:6" ht="16.5">
-      <c r="B116" s="3">
-        <v>1</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F116" s="4"/>
     </row>
     <row r="117" spans="2:6" ht="16.5">
       <c r="B117" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>165</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="4"/>
     </row>
     <row r="118" spans="2:6" ht="16.5">
       <c r="B118" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>10</v>
@@ -2928,43 +2970,192 @@
         <v>9</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119" spans="2:6" ht="16.5">
       <c r="B119" s="3">
-        <v>6</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" ht="16.5">
+      <c r="B120" s="3">
+        <v>6</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F119" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6" ht="16.5">
-      <c r="B120" s="3"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
+      <c r="F120" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" ht="16.5">
+      <c r="B121" s="3"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+    </row>
+    <row r="122" spans="2:6" ht="16.5">
+      <c r="B122" s="17"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+    </row>
+    <row r="124" spans="2:6" ht="20.25">
+      <c r="B124" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
+    </row>
+    <row r="125" spans="2:6" ht="16.5">
+      <c r="B125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" ht="16.5">
+      <c r="B126" s="3">
+        <v>1</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" s="4"/>
+    </row>
+    <row r="127" spans="2:6" ht="16.5">
+      <c r="B127" s="3">
+        <v>2</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="5"/>
+      <c r="F127" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" ht="16.5">
+      <c r="B128" s="3">
+        <v>4</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" ht="16.5">
+      <c r="B129" s="3">
+        <v>5</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" ht="16.5">
+      <c r="B130" s="3">
+        <v>6</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" ht="16.5">
+      <c r="B131" s="3">
+        <v>7</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E131" s="4">
+        <v>0</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B101:F101"/>
+  <mergeCells count="9">
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B45:F45"/>
     <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B102:F102"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2986,348 +3177,348 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5">
+      <c r="A2" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="13" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5">
-      <c r="A2" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.5">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="13" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="13" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="13" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="13" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="13" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="21" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" ht="21" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="27"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="28"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="16.5">
-      <c r="A12" s="27"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5">
+      <c r="A13" s="20"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" ht="33" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" ht="33" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5">
-      <c r="A13" s="27"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" ht="33" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:6" ht="33" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="13" t="s">
-        <v>126</v>
-      </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="28"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="16.5">
-      <c r="A18" s="27"/>
-      <c r="B18" s="21" t="s">
-        <v>137</v>
+      <c r="A18" s="20"/>
+      <c r="B18" s="22" t="s">
+        <v>134</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="29" t="s">
-        <v>160</v>
+      <c r="E18" s="25" t="s">
+        <v>157</v>
       </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="16.5">
-      <c r="A19" s="27"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="27"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" ht="16.5">
-      <c r="A20" s="27"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="28"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="16.5">
-      <c r="A21" s="27"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="21" t="s">
-        <v>131</v>
+      <c r="A22" s="20"/>
+      <c r="B22" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D23" s="13"/>
-      <c r="E23" s="29" t="s">
-        <v>162</v>
+      <c r="E23" s="25" t="s">
+        <v>159</v>
       </c>
       <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" ht="16.5">
-      <c r="A24" s="27"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="E24" s="28"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="16.5">
-      <c r="A25" s="27"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A26" s="27"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1">
-      <c r="A27" s="27"/>
-      <c r="B27" s="21" t="s">
-        <v>136</v>
+      <c r="A27" s="20"/>
+      <c r="B27" s="22" t="s">
+        <v>133</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="29" t="s">
-        <v>161</v>
+      <c r="E27" s="25" t="s">
+        <v>158</v>
       </c>
       <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A28" s="27"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="27"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="25"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D29" s="13"/>
-      <c r="E29" s="28"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="16.5">
-      <c r="A30" s="27"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" ht="16.5">
-      <c r="A31" s="27"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" ht="16.5">
-      <c r="A32" s="27"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" ht="16.5">
-      <c r="A33" s="28"/>
-      <c r="B33" s="25"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
@@ -3335,6 +3526,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B2:B11"/>
     <mergeCell ref="E2:E11"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B27:B29"/>
@@ -3345,11 +3541,6 @@
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="E27:E29"/>
     <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B2:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
